--- a/loaded_influencer_data/shellybombshell_/shellybombshell__video.xlsx
+++ b/loaded_influencer_data/shellybombshell_/shellybombshell__video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,16 +506,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shellybombshell_/video/7486877289884437791</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shellybombshell_/video/7489605984357322015</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>491</v>
+        <v>1052</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -524,1781 +524,2237 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>50% off on your oral fragrance 😌😌
+#oralhealth #oralhygiene #oralcare #oralcareroutine #oralhygienetips</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9505703422053232</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.8555133079847909</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.09505703422053231</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1901140684410646</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shellybombshell_/video/7489522925696044319</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>418</v>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Are these cute or what??
+#headband #headbands #headbandhairstyle</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5.023923444976076</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.30622009569378</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.7177033492822966</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2392344497607655</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shellybombshell_/video/7489392397864930591</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1519</v>
+      </c>
+      <c r="C4" t="n">
+        <v>180</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Some things I’ve been through in my life only lives rent free in my head because I can’t even mention half of them!!</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>12.63989466754444</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.84990125082291</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7899934167215273</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1974983541803818</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shellybombshell_/video/7489325338367937823</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>517</v>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>This necklace stack 😌😌😌
+#necklaces #necklacestack #necklaceset #tiktokshopcreatorpicks</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5.222437137330754</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.029013539651837</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1934235976789168</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shellybombshell_/video/7489312152554114334</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>This curtain bang wig is perfect for on the go!!!! @Jessie’s Wig #jessieswig #curtainbangwig #viralwig #tiktokshopwigs</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2.916666666666667</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shellybombshell_/video/7489247017927986463</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5927</v>
+      </c>
+      <c r="C7" t="n">
+        <v>385</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>72</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Dining area… black and white decor ♠️
+#diningroom #dining #diningtable #diningroomdecor #blackandwhitedecor</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6.681289016365784</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.495697654800067</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1855913615657162</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.214779821157415</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shellybombshell_/video/7489242130913692958</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1351</v>
+      </c>
+      <c r="C8" t="n">
+        <v>68</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Spring cleaning part 2 ♠️
+#cleaning #homedecortiktok #homedecoration #homedecortips</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5.255366395262769</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.033308660251666</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2220577350111029</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.5921539600296076</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shellybombshell_/video/7488937601144065311</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>734</v>
+      </c>
+      <c r="C9" t="n">
+        <v>32</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>This setting powder from @carslan_us is an absolute game changer…. For the next few months.. you guys need to try this!!!</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4.768392370572207</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.35967302452316</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4087193460490463</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.6811989100817438</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shellybombshell_/video/7488885784959847710</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>28500</v>
+      </c>
+      <c r="C10" t="n">
+        <v>635</v>
+      </c>
+      <c r="D10" t="n">
+        <v>23</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>284</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Wall art 3d ♠️
+#wallart #wallartdecor #walldecor #homedecortiktok #homedecoration</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2.308771929824561</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.228070175438596</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08070175438596491</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9964912280701754</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shellybombshell_/video/7486877289884437791</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>491</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>I’m absolutely in love with the new water bottle 😌😌
 #waterbottle #drinkmorewater #waterbottles</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="H11" t="n">
         <v>2.240325865580448</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I11" t="n">
         <v>2.036659877800407</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.2036659877800407</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L11" t="n">
         <v>0.2036659877800407</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7486869135230618911</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B12" t="n">
         <v>339</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C12" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>3</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>If you wanna look look, feel good, have glowing skin, long hair and health nails you definitely need to start taking collagen.</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="H12" t="n">
         <v>1.769911504424779</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I12" t="n">
         <v>1.474926253687316</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.2949852507374631</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L12" t="n">
         <v>0.8849557522123894</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7486712946681220383</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B13" t="n">
         <v>420</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C13" t="n">
         <v>18</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>🔥🔥UNice Bye-Bye Knots Wig 7x5 Pre Cut Lace Water Wave Flexible Cap Size Drawstring Wig, 🥰code: bye18 get 18% OFF🔥🔥 @unicehairwig and @unicehairwig</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="H13" t="n">
         <v>4.523809523809524</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I13" t="n">
         <v>4.285714285714286</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.2380952380952381</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L13" t="n">
         <v>0.2380952380952381</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7486705609589476639</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B14" t="n">
         <v>725</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C14" t="n">
         <v>35</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D14" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>4</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>🔥🔥UNice Bye-Bye Knots Wig 7x5 Pre Cut Lace Water Wave Flexible Cap Size Drawstring Wig, 🥰code: bye18 get 18% OFF🔥🔥</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H14" t="n">
         <v>5.241379310344827</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I14" t="n">
         <v>4.827586206896552</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.4137931034482759</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L14" t="n">
         <v>0.5517241379310345</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7486646557362736414</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B15" t="n">
         <v>260</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C15" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D15" t="n">
         <v>2</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>3</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>🔥🔥UNice Bye-Bye Knots Wig 7x5 Pre Cut Lace Water Wave Flexible Cap Size Drawstring Wig, 🥰code: bye18 get 18% OFF🔥🔥</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H15" t="n">
         <v>5.384615384615385</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I15" t="n">
         <v>4.615384615384616</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.7692307692307693</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L15" t="n">
         <v>1.153846153846154</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7486276530507664671</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B16" t="n">
         <v>527</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C16" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>4</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>I have a major problem with digestion and let me tell you… not ok more..
 #digestion #digestivehealth</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H16" t="n">
         <v>0.7590132827324478</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I16" t="n">
         <v>0.7590132827324478</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>0.7590132827324478</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7486194255434648863</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B17" t="n">
         <v>760</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C17" t="n">
         <v>20</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D17" t="n">
         <v>4</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>The water bottle that I never knew I needed!!!
 This thing tracks how many water I drink, reminds me of when to drink, and keeps me on track with the amount I need to drink.</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H17" t="n">
         <v>3.157894736842105</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I17" t="n">
         <v>2.631578947368421</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.5263157894736842</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7486110809911807263</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B18" t="n">
         <v>524</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C18" t="n">
         <v>12</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>3</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>I mean… if this is not the perfect bags to store your wigs in I do t know what is ☺️☺️☺️
 #storage #storagehacks</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H18" t="n">
         <v>2.290076335877862</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I18" t="n">
         <v>2.290076335877862</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>0.5725190839694656</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7485898522198379806</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B19" t="n">
         <v>904</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C19" t="n">
         <v>36</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D19" t="n">
         <v>2</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>2</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Let’s do some skincare ☺️☺️
 #clearskin #clearskintips #clearskinroutine #clearskin #fyp #medicube</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H19" t="n">
         <v>4.20353982300885</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I19" t="n">
         <v>3.982300884955752</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.2212389380530974</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L19" t="n">
         <v>0.2212389380530974</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7485758778693012767</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B20" t="n">
         <v>2024</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C20" t="n">
         <v>25</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>7</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>For only $130 you can get this 30inch buss down which is great for everyday wear!!!
 #30inchwig #30inchbussdown</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H20" t="n">
         <v>1.235177865612648</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I20" t="n">
         <v>1.235177865612648</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>0.3458498023715415</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7485531976355564831</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B21" t="n">
         <v>1233</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C21" t="n">
         <v>80</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D21" t="n">
         <v>4</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>5</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Get to know me 🥹🥹
 #gettoknowme #gettoknowmechallenge #aboutme</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H21" t="n">
         <v>6.81265206812652</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I21" t="n">
         <v>6.4882400648824</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.3244120032441201</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L21" t="n">
         <v>0.40551500405515</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7485518496269438238</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B22" t="n">
         <v>1049</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C22" t="n">
         <v>47</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D22" t="n">
         <v>11</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>3</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Get to know me a little more!!! I’ve been wanting to do this video for so long!!!! Thanks to my sister for the motivation!!!</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H22" t="n">
         <v>5.529075309818875</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I22" t="n">
         <v>4.480457578646329</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1.048617731172545</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L22" t="n">
         <v>0.2859866539561487</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7485414444571299103</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B23" t="n">
         <v>765</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C23" t="n">
         <v>21</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D23" t="n">
         <v>6</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>8</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Finally a teeth whitener that doesn’t make my teeth sensitive. #gmeelanwhiteningstrips #teethcare #whiteningstrips</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H23" t="n">
         <v>3.529411764705882</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I23" t="n">
         <v>2.745098039215686</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.7843137254901961</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L23" t="n">
         <v>1.045751633986928</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7485122089867906335</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B24" t="n">
         <v>2041</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C24" t="n">
         <v>165</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D24" t="n">
         <v>13</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>5</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Our church OOTD 😩😩😉
 #churchgirl #churchy #churchtok #churchootd #churchoutfits #churchoutfit</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H24" t="n">
         <v>8.721215090641843</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I24" t="n">
         <v>8.084272415482605</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.6369426751592357</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L24" t="n">
         <v>0.2449779519843214</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7484801902442597662</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B25" t="n">
         <v>3330</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C25" t="n">
         <v>193</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D25" t="n">
         <v>8</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>8</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Get ready with us for date night ❤️❤️
 #datenight #dateideas #datenightideas #datenightoutfit #dateidea</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H25" t="n">
         <v>6.036036036036037</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I25" t="n">
         <v>5.795795795795796</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.2402402402402402</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L25" t="n">
         <v>0.2402402402402402</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7484790745195482398</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B26" t="n">
         <v>2053</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C26" t="n">
         <v>99</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D26" t="n">
         <v>5</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>4</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Get ready with us for date night ❤️❤️
 #datenight #dateideas #datenightideas #datenightoutfit #dateidea</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H26" t="n">
         <v>5.065757428153921</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I26" t="n">
         <v>4.822211397954213</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.2435460301997077</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L26" t="n">
         <v>0.1948368241597662</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7484782403450424607</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B27" t="n">
         <v>1516</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C27" t="n">
         <v>45</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D27" t="n">
         <v>4</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>4</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Let’s get ready for dinner with hubby..
 #makeuphack #makeupreview #makeup #makeuptutorial</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H27" t="n">
         <v>3.232189973614775</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I27" t="n">
         <v>2.968337730870712</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.2638522427440633</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L27" t="n">
         <v>0.2638522427440633</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7484777085446163742</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B28" t="n">
         <v>1645</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C28" t="n">
         <v>84</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D28" t="n">
         <v>7</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>5</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Let’s get ready for Date night.
 #redhair #redhairdontcare #redhairgirl #redhairdye #riohair</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H28" t="n">
         <v>5.531914893617021</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I28" t="n">
         <v>5.106382978723404</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.425531914893617</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L28" t="n">
         <v>0.303951367781155</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/photo/7484419932852194591</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B29" t="n">
         <v>1705</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C29" t="n">
         <v>77</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D29" t="n">
         <v>6</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>3</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Clearing out the drafts 💙💙</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H29" t="n">
         <v>4.868035190615836</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I29" t="n">
         <v>4.516129032258064</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.3519061583577713</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L29" t="n">
         <v>0.1759530791788856</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7484315709296758046</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>55400</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C30" t="n">
         <v>805</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D30" t="n">
         <v>35</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>236</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>These disposable undies will save your pretty undies at that time of the month girls 😌😌😌
 #disposable</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H30" t="n">
         <v>1.516245487364621</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I30" t="n">
         <v>1.453068592057762</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.0631768953068592</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L30" t="n">
         <v>0.4259927797833936</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7483942580409896223</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B31" t="n">
         <v>853</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C31" t="n">
         <v>19</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D31" t="n">
         <v>2</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>2</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>These bounce sticks from @Peter Thomas Roth Labs is absolutely amazing to add the instant boost, instant firm, instant glow.</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H31" t="n">
         <v>2.46189917936694</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I31" t="n">
         <v>2.227432590855803</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.2344665885111371</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L31" t="n">
         <v>0.2344665885111371</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7483896675065515295</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B32" t="n">
         <v>1629</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C32" t="n">
         <v>46</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D32" t="n">
         <v>2</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>2</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>I just can’t get over how good this smell 😌😌
 #homescents #homedecor #hometour #airfreshener #airfreshner</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H32" t="n">
         <v>2.946593001841621</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I32" t="n">
         <v>2.823818293431553</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.1227747084100675</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L32" t="n">
         <v>0.1227747084100675</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7483684791548792095</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B33" t="n">
         <v>3827</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C33" t="n">
         <v>275</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D33" t="n">
         <v>18</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>11</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Date night ootd
 #datenight #datenightideas #datenightoutfit #datenightootd #datenightchallenge</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H33" t="n">
         <v>7.656127515024824</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I33" t="n">
         <v>7.185785210347531</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.4703423046772929</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L33" t="n">
         <v>0.2874314084139012</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7483674761692843295</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B34" t="n">
         <v>1657</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C34" t="n">
         <v>53</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D34" t="n">
         <v>7</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>6</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Date night hair edition!!!!
 This is one of my favorite wigs that I’ve ever gotten @WigFever Hair #glueless #gluelesswig</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H34" t="n">
         <v>3.621001810500905</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I34" t="n">
         <v>3.198551599275799</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.4224502112251056</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L34" t="n">
         <v>0.3621001810500905</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7483641213350841630</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B35" t="n">
         <v>5528</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C35" t="n">
         <v>113</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D35" t="n">
         <v>4</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>5</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>I got this smart water bottle for my husband and I love it so much imma have to get one for myself.
 #smartwater</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H35" t="n">
         <v>2.116497829232995</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I35" t="n">
         <v>2.044138929088278</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.0723589001447178</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L35" t="n">
         <v>0.09044862518089725</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7483182761201782046</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B36" t="n">
         <v>5065</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C36" t="n">
         <v>36</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D36" t="n">
         <v>2</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>2</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>This palmers foot magic is a game changer… I don’t play at all about my feet and this product.. I’m absolutely obsessed!!!</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H36" t="n">
         <v>0.7502467917077986</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I36" t="n">
         <v>0.7107601184600197</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.03948667324777887</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L36" t="n">
         <v>0.03948667324777887</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7483146265635687710</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B37" t="n">
         <v>2107</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C37" t="n">
         <v>44</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D37" t="n">
         <v>4</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>5</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>10 Second human hair ponytail down to $39
 #frodiohair #frodioponypop ##frodioponytail @Frodio Hair</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H37" t="n">
         <v>2.2781205505458</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I37" t="n">
         <v>2.08827717133365</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.18984337921215</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L37" t="n">
         <v>0.2373042240151875</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7482993235808259359</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B38" t="n">
         <v>1400</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C38" t="n">
         <v>61</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D38" t="n">
         <v>10</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>5</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Get ready with me 🥰😉
 #makeuphack #fullfacemakeup #fullfaceofsheglam #fullmakeup #beatface</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H38" t="n">
         <v>5.071428571428571</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I38" t="n">
         <v>4.357142857142858</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.7142857142857143</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L38" t="n">
         <v>0.3571428571428572</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7482853944524328222</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B39" t="n">
         <v>4619</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C39" t="n">
         <v>50</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D39" t="n">
         <v>9</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>4</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Y’all gone make me act up this summer with the ponytail 😩😩
 #ponytail #ponytailtutorial #ponytailhairstyle</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H39" t="n">
         <v>1.277332756007794</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I39" t="n">
         <v>1.082485386447283</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.1948473695605109</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L39" t="n">
         <v>0.08659883091578263</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7482597477711908127</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B40" t="n">
         <v>1881</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C40" t="n">
         <v>33</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D40" t="n">
         <v>3</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>5</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>OQ Hair🥇| Kinky Straight Wear Go Wig 100% Glueless 🥳 – 7x5 Pre-cut HD Lace🙀,Your best choice🤩🤩35% OFF with Code HR35💥.</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H40" t="n">
         <v>1.913875598086124</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I40" t="n">
         <v>1.754385964912281</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.1594896331738437</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L40" t="n">
         <v>0.2658160552897395</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7481828741572742431</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B41" t="n">
         <v>25200</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C41" t="n">
         <v>192</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D41" t="n">
         <v>7</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>23</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>OQ Hair🥇| Kinky Straight Wear Go Wig 100% Glueless 🥳 – 7x5 Pre-cut HD Lace🙀,Your best choice🤩🤩35% OFF with Code HR35💥.</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H41" t="n">
         <v>0.7896825396825397</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I41" t="n">
         <v>0.7619047619047619</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.02777777777777778</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L41" t="n">
         <v>0.09126984126984128</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7481819589479812382</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B42" t="n">
         <v>10600</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C42" t="n">
         <v>85</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D42" t="n">
         <v>16</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>18</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Affordable&amp;invisible HD lace 🥰 HD byebye cap wig install. Affordable&amp;Invisible HD lace ❤️
 Use code HD120 for 20% off</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H42" t="n">
         <v>0.9528301886792453</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I42" t="n">
         <v>0.8018867924528302</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.1509433962264151</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L42" t="n">
         <v>0.169811320754717</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7481758725187980574</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B43" t="n">
         <v>9588</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C43" t="n">
         <v>892</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D43" t="n">
         <v>50</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>30</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Family breakfast 🥞
 #blackfamily #blackfamilies #blackfamilylife #blacklivesmattter #blacklove🖤</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H43" t="n">
         <v>9.824780976220275</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I43" t="n">
         <v>9.303295786399666</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.5214851898206091</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L43" t="n">
         <v>0.3128911138923655</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7481486032047852830</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B44" t="n">
         <v>10500</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C44" t="n">
         <v>965</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D44" t="n">
         <v>90</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>32</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Life of a fat woman!!!</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H44" t="n">
         <v>10.04761904761905</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I44" t="n">
         <v>9.19047619047619</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.8571428571428572</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L44" t="n">
         <v>0.3047619047619048</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7481468896206228767</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B45" t="n">
         <v>3265</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C45" t="n">
         <v>68</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D45" t="n">
         <v>5</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>14</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Life of a fat woman!!!</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H45" t="n">
         <v>2.23583460949464</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I45" t="n">
         <v>2.082695252679939</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.1531393568147014</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L45" t="n">
         <v>0.4287901990811639</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7481454344085245214</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B46" t="n">
         <v>3316</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C46" t="n">
         <v>97</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D46" t="n">
         <v>11</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>11</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Soft Glam for a date with the boys..
 @milkmakeup Primer
@@ -2306,52 +2762,52 @@
 @Fenty Beauty Primer</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H46" t="n">
         <v>3.256936067551266</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I46" t="n">
         <v>2.925211097708082</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.3317249698431846</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L46" t="n">
         <v>0.3317249698431846</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7481313131348725023</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B47" t="n">
         <v>1320</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C47" t="n">
         <v>44</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D47" t="n">
         <v>11</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>4</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Soft Glam for a date with the boys..
 @milkmakeup Primer
@@ -2359,637 +2815,231 @@
 @Fenty Beauty Primer</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H47" t="n">
         <v>4.166666666666666</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I47" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L47" t="n">
         <v>0.303030303030303</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7481125256955039007</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B48" t="n">
         <v>1988</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C48" t="n">
         <v>40</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D48" t="n">
         <v>2</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>6</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Y’all this 2 in 1 steamer!!!!! Omg is literally the missing piece in my Selfcare that I didn’t know that I needed….</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H48" t="n">
         <v>2.112676056338028</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I48" t="n">
         <v>2.012072434607646</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.1006036217303823</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L48" t="n">
         <v>0.3018108651911469</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7481092341994999071</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B49" t="n">
         <v>1325</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C49" t="n">
         <v>21</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D49" t="n">
         <v>2</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>2</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>I absolutely love this line.
 #skinstok #skincaretiktok #skincarehacks #skincare #pcos #pcosweightloss</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H49" t="n">
         <v>1.735849056603773</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I49" t="n">
         <v>1.584905660377358</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.1509433962264151</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L49" t="n">
         <v>0.1509433962264151</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7480061167558331679</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B50" t="n">
         <v>1707</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C50" t="n">
         <v>21</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>3</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Anua Skincare has been doing wonders to my face and I just hd to share!!!
 #skinstok #skincaretiktok #skincarehacks</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H50" t="n">
         <v>1.347393087287639</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I50" t="n">
         <v>1.230228471001757</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.1171646162858817</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L50" t="n">
         <v>0.1757469244288225</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shellybombshell_/video/7479991596990221599</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B51" t="n">
         <v>1239</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C51" t="n">
         <v>59</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D51" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>7</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Day in my life Sunday Edition 🙏🏾
 Church was absolutely amazing.. I must say.
 I’ve also just starting using this eye cream from</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H51" t="n">
         <v>4.842615012106537</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I51" t="n">
         <v>4.761904761904762</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.08071025020177562</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L51" t="n">
         <v>0.5649717514124294</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-03-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shellybombshell_/video/7479910465347390751</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>2709</v>
-      </c>
-      <c r="C43" t="n">
-        <v>132</v>
-      </c>
-      <c r="D43" t="n">
-        <v>7</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>15</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Sunday Reset 🥰🥰
-#homedecor #homedecorideas #homedecortiktok #homedecoration</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>5.131044665928386</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4.87264673311185</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.2583979328165375</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.5537098560354374</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shellybombshell_/video/7479646258299145503</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>1304</v>
-      </c>
-      <c r="C44" t="n">
-        <v>25</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>3</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>If you want some super soft lips.. you should absolutely wear a lip mask before bed. Your lips and your partner will thank you.</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>1.993865030674847</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1.917177914110429</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.07668711656441718</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.2300613496932515</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>2025-03-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shellybombshell_/video/7479596540705738015</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>7772</v>
-      </c>
-      <c r="C45" t="n">
-        <v>516</v>
-      </c>
-      <c r="D45" t="n">
-        <v>22</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>24</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>My husband and sister teamed up and got me the dji because my h7x is not working properly for me to vlog 😩😩</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>6.922285126093669</v>
-      </c>
-      <c r="I45" t="n">
-        <v>6.639217704580545</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.283067421513124</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.3088008234688626</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>2025-03-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shellybombshell_/video/7479236879187971359</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>5113</v>
-      </c>
-      <c r="C46" t="n">
-        <v>212</v>
-      </c>
-      <c r="D46" t="n">
-        <v>6</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>53</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>I’ve wanted to add some lighting to my shelves for the longest while and I’m so happy that I found these!!</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>4.263641697633483</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4.146293761001369</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.1173479366321142</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.036573440250342</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-03-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shellybombshell_/video/7478874010508381471</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1532</v>
-      </c>
-      <c r="C47" t="n">
-        <v>38</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Im officially a @CeraVe babe 🥰🥰
-Thank you so much… I really appreciate this!!!</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>2.610966057441253</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.48041775456919</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1305483028720627</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.1305483028720627</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shellybombshell_/video/7478792725714701598</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1684</v>
-      </c>
-      <c r="C48" t="n">
-        <v>40</v>
-      </c>
-      <c r="D48" t="n">
-        <v>2</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Wig scam alert!!!
-#fyp #scam #scammer #scammers #scammeralert #scammed</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>2.494061757719715</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2.375296912114014</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.1187648456057007</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.05938242280285036</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shellybombshell_/video/7478748925449522463</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>103500</v>
-      </c>
-      <c r="C49" t="n">
-        <v>4509</v>
-      </c>
-      <c r="D49" t="n">
-        <v>93</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>548</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Your feet deserves the best 😌😌🦶🏾
-#feetcare #feetnails #feet #footcare</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>4.446376811594202</v>
-      </c>
-      <c r="I49" t="n">
-        <v>4.356521739130435</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.08985507246376812</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.5294685990338164</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shellybombshell_/video/7478528658685185310</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1595</v>
-      </c>
-      <c r="C50" t="n">
-        <v>42</v>
-      </c>
-      <c r="D50" t="n">
-        <v>5</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Living with these two is never a dull moment 😩😩😂
-Thanks MaltOMeal ❤️❤️
-#cereal #cereals #pr</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>2.946708463949843</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.633228840125392</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.3134796238244514</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.06269592476489029</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
         </is>
       </c>
     </row>
